--- a/Resources/output.xlsx
+++ b/Resources/output.xlsx
@@ -530,7 +530,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +564,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -615,9 +615,7 @@
       <c r="C5" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>45228</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>1</v>
       </c>
@@ -632,7 +630,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -660,31 +658,11 @@
           <t>18:00:00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>$378</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>9:00 pm</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10:10 pm</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Aer Lingus</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>eDreams</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -703,9 +681,7 @@
       <c r="C7" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>45228</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>1</v>
       </c>
@@ -771,9 +747,7 @@
       <c r="C9" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>45228</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>1</v>
       </c>
@@ -788,7 +762,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -822,7 +796,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -856,7 +830,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -890,7 +864,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -924,7 +898,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -958,7 +932,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -992,7 +966,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1026,7 +1000,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1060,7 +1034,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1094,7 +1068,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1128,7 +1102,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1162,7 +1136,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1196,7 +1170,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1230,7 +1204,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1264,7 +1238,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1298,7 +1272,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1332,7 +1306,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1366,7 +1340,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1400,7 +1374,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1434,7 +1408,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1468,7 +1442,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1476,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1536,7 +1510,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1570,7 +1544,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1604,7 +1578,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1638,7 +1612,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1672,7 +1646,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1706,7 +1680,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1740,7 +1714,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1748,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1808,7 +1782,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1842,7 +1816,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1876,7 +1850,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1910,7 +1884,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1942,7 +1916,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1974,7 +1948,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2006,7 +1980,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2038,7 +2012,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2070,7 +2044,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2076,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2134,7 +2108,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2166,7 +2140,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2198,7 +2172,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2230,7 +2204,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2262,7 +2236,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2294,7 +2268,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2326,7 +2300,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2358,7 +2332,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2390,7 +2364,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2422,7 +2396,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2454,7 +2428,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2486,7 +2460,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2518,7 +2492,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2550,7 +2524,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2582,7 +2556,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2614,7 +2588,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2646,7 +2620,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2672,13 +2646,33 @@
           <t>18:00:00</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>$283</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>10:10 pm</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>11:30 am+2</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Multiple airlines</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Combigo</t>
+        </is>
+      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2710,7 +2704,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2742,7 +2736,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
